--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -66,7 +66,7 @@
     <t>节奏风暴抽奖（需实名）</t>
   </si>
   <si>
-    <t>实时总督奖励</t>
+    <t>实时舰长/提督/总督奖励</t>
   </si>
   <si>
     <t>多号挂机</t>
@@ -111,7 +111,7 @@
     <t>晚安姬</t>
   </si>
   <si>
-    <t>补领总督奖励</t>
+    <t>补领舰长/提督/总督奖励</t>
   </si>
   <si>
     <t>发起直播间抽奖</t>
@@ -154,12 +154,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -191,34 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -228,14 +244,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -243,8 +251,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,44 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -312,9 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,37 +348,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,37 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,31 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,67 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +557,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,15 +603,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,30 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -653,11 +648,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,159 +659,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1194,7 +1184,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="4"/>
@@ -1207,484 +1197,484 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="12" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="12" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="12" customHeight="1" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" ht="12" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" ht="12" customHeight="1" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" ht="12" customHeight="1" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" ht="12" customHeight="1" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" ht="22.5" spans="1:5">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" ht="22.5" spans="1:5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>42</v>
       </c>
     </row>

--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="22943" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>哔哩哔哩插件姬 - 各版本功能一栏表</t>
   </si>
   <si>
+    <t>Q &amp; A</t>
+  </si>
+  <si>
+    <t>常见问题答疑</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
+    <t>代挂</t>
+  </si>
+  <si>
     <t>试用版</t>
   </si>
   <si>
@@ -42,12 +51,32 @@
     <t>√</t>
   </si>
   <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>软件使用过程发现问题怎么处理 ？</t>
+  </si>
+  <si>
     <t>友爱社签到（限PC端）</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>优先看使用说明或Q&amp;A，要是解决不了可以私聊群主或管理员留言，不要在群里抱怨谢谢
+白天因为要上班一般不会回复，回复了也处理不了，晚上下班看见会处理
+只有一点，别催，这不是什么很紧急的东西
+发现问题是静心解决的，要是不能等，我退钱也请你永远离开谢谢
+我不是骗子也不喜欢当骗子，我有稳定工作不差这点钱，做这个纯粹是业余兴趣，顺便维持服务器费用而已
+大家都是社会人，互相理解谢谢，不能理解请别入手</t>
+  </si>
+  <si>
     <t>日常/周常礼包</t>
   </si>
   <si>
+    <t>在线时长经验（需老爷）</t>
+  </si>
+  <si>
     <t>成就礼包</t>
   </si>
   <si>
@@ -63,9 +92,27 @@
     <t>高能抽奖（需绑定手机）</t>
   </si>
   <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代挂与租软件的区别是什么 ？ </t>
+  </si>
+  <si>
     <t>节奏风暴抽奖（需实名）</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>代挂在服务器上挂机；租软件在你的电脑上自己挂机
+代挂需提供账密；租软件无需提供账密
+代挂是与其他人共享网络资源，对于某些需要争抢的抽奖（如节奏）会因为这个原因存在劣势
+其他差异请查看《各版本功能一览表》</t>
+  </si>
+  <si>
     <t>实时舰长/提督/总督奖励</t>
   </si>
   <si>
@@ -93,25 +140,51 @@
     <t>实时版聊</t>
   </si>
   <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>我是用代挂还是租软件 ？</t>
+  </si>
+  <si>
     <t>随缘点歌姬</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>如果你只有一个号，建议是代挂；反之可以考虑租软件
+但是代挂不允许为某个人调整抽奖参数（因为是共同挂机，目的是确保大部分人不被小黑屋）
+对于不怕小黑屋风险的可以租软件提高抽奖率</t>
+  </si>
+  <si>
     <t>打call姬</t>
   </si>
   <si>
     <t>公告姬</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>答谢姬</t>
   </si>
   <si>
     <t>晚安姬</t>
   </si>
   <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>为什么我发现挂机的时候，有些抽奖没有参与 ？</t>
+  </si>
+  <si>
     <t>补领舰长/提督/总督奖励</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>凌晨1:00~6:00属于B站统计的高危时间段，期间不会执行任何操作（这是强制的不可设置）
+另外挂机系统会优先确保不被送小黑屋，所以跳过某些抽奖行为
+但这不是强制的，非代挂用户可以自行修改参数（但至少是主播版）
+但是随之提高的小黑屋风险请自行承担</t>
   </si>
   <si>
     <t>发起直播间抽奖</t>
@@ -131,22 +204,106 @@
 （便于手机端管理直播间）</t>
   </si>
   <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>挂机期间我可以登录B站正常操作么 ？</t>
+  </si>
+  <si>
     <t>软件自动升级</t>
   </si>
   <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>可以，但是请尽量不要人工操作宝箱、抽奖等行为，避免被检测到提高被送小黑屋几率
+当然如果你不怕，也可以随便点</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
-    <t>免费试用3天</t>
-  </si>
-  <si>
-    <t>233/月</t>
-  </si>
-  <si>
-    <t>333/月</t>
-  </si>
-  <si>
-    <t>888/月</t>
+    <t>20/月</t>
+  </si>
+  <si>
+    <t>免费试用1天</t>
+  </si>
+  <si>
+    <t>100/月</t>
+  </si>
+  <si>
+    <t>150/月</t>
+  </si>
+  <si>
+    <t>500/月</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>被关了小黑屋我该怎么办 ？</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>等B站放出来（这个小黑屋不是风纪的小黑屋，查不到的，表现为：点击抽奖时提示"访问被拒绝"）</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>被关了小黑屋还可以抽奖吗 ？</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>不能，期间只能参与每日签到，可以正常看直播和版聊
+不能开宝箱，不能抽奖（含小电视、活动、舰长）</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>这个软件可以避免我被抓去小黑屋吗 ?</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>不可以，默认的抽奖参数只能降低被抓的风险，但不保证绝对不被抓
+会不会被抓完全看脸，有些人可能隔天就被抓了，有些人几个月都没事
+如果介意就不要入</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被关小黑屋后多久会放出来 ？ </t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>目前已知最短是1天，最长是15天
+理论上被抓过的次数越多，关的时间越长</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>挂机期间如果我被抓了，有什么补偿 ？</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>不会有补偿，挂机前请明确你会承担的风险，责任自负
+这个世界有人脸黑有人脸白，被不被抓我控制不了，不能接受请别入手（建议先用代挂功能试试自己的脸）
+这是出于两个方面考虑：
+一我不知道你的账号之前有没有用过其他科技软件被抹黑过
+二我不知道你把挂机参数调整成什么样了</t>
   </si>
 </sst>
 </file>
@@ -154,8 +311,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -190,8 +347,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,16 +386,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +425,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -260,46 +449,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,20 +471,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +499,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,19 +571,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,150 +649,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -553,6 +728,97 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,45 +844,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -627,21 +854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,157 +886,187 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1179,508 +1421,1318 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="1"/>
+    <col min="9" max="18" width="9" style="2"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="12" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="12" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="12" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" ht="12" customHeight="1" spans="1:17">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:17">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:17">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:17">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:17">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" ht="12" customHeight="1" spans="1:17">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" ht="12" customHeight="1" spans="1:17">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:17">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" ht="12" customHeight="1" spans="1:17">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" ht="12" customHeight="1" spans="1:17">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="12" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="12" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="12" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="12" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="12" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="12" customHeight="1" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="12" customHeight="1" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1" spans="1:5">
-      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" spans="1:17">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="12" customHeight="1" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="12" customHeight="1" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="12" customHeight="1" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" ht="12" customHeight="1" spans="1:17">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="22.5" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" ht="12" customHeight="1" spans="1:17">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="12" customHeight="1" spans="1:5">
-      <c r="A28" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" ht="12" customHeight="1" spans="1:17">
+      <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="I17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" ht="12" customHeight="1" spans="1:17">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="I18" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" ht="12" customHeight="1" spans="1:17">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" ht="12" customHeight="1" spans="1:17">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" ht="12" customHeight="1" spans="1:17">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="1:17">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" ht="12" customHeight="1" spans="1:17">
+      <c r="A23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" ht="12" customHeight="1" spans="1:17">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" ht="12" customHeight="1" spans="1:17">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" ht="21.6" spans="1:17">
+      <c r="A27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" ht="12" customHeight="1" spans="1:17">
+      <c r="A28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="8:17">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="8:17">
+      <c r="H32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="8:17">
+      <c r="H33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="8:17">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="8:17">
+      <c r="H35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="8:17">
+      <c r="H36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="8:17">
+      <c r="H37" s="10"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="8:17">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="8:17">
+      <c r="H39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="8:17">
+      <c r="H40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="8:17">
+      <c r="H41" s="9"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="8:17">
+      <c r="H42" s="10"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="8:17">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="8:17">
+      <c r="H44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="8:17">
+      <c r="H45" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="8:17">
+      <c r="H46" s="10"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="8:17">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="8:17">
+      <c r="H48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="8:17">
+      <c r="H49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="8:17">
+      <c r="H50" s="9"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="8:17">
+      <c r="H51" s="9"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="8:17">
+      <c r="H52" s="9"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="8:17">
+      <c r="H53" s="10"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="41">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="I38:Q38"/>
+    <mergeCell ref="I39:Q39"/>
+    <mergeCell ref="I43:Q43"/>
+    <mergeCell ref="I44:Q44"/>
+    <mergeCell ref="I47:Q47"/>
+    <mergeCell ref="I48:Q48"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I4:Q9"/>
+    <mergeCell ref="I12:Q15"/>
+    <mergeCell ref="I18:Q20"/>
+    <mergeCell ref="I23:Q26"/>
+    <mergeCell ref="I29:Q30"/>
+    <mergeCell ref="I36:Q37"/>
+    <mergeCell ref="I40:Q42"/>
+    <mergeCell ref="I45:Q46"/>
+    <mergeCell ref="I49:Q53"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1697,7 +2749,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1714,7 +2766,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>哔哩哔哩插件姬 - 各版本功能一栏表</t>
   </si>
@@ -304,6 +304,20 @@
 这是出于两个方面考虑：
 一我不知道你的账号之前有没有用过其他科技软件被抹黑过
 二我不知道你把挂机参数调整成什么样了</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每天有多少辣条？ 有多少节奏风暴 ？ </t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>代挂以不被关小黑屋为最优先，因此不是100%参与辣条抽奖，若你租用软件可自行设置参数。
+此软件是单机版独立扫描服务器直播间，发现并抢到节奏风暴在某种程度上视乎你的网速，
+但是为了避免过频扫描触发B站的反DDos攻击导致账号被关小黑屋，会对扫描频率做一定程度的限制</t>
   </si>
 </sst>
 </file>
@@ -312,9 +326,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -341,6 +355,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -349,7 +378,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +415,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,11 +437,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,15 +453,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,73 +491,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -523,187 +537,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,45 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -819,26 +794,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,12 +815,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -874,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,137 +900,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,6 +1070,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,6 +1084,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1421,12 +1441,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -1452,17 +1472,17 @@
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -1516,17 +1536,17 @@
       <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:17">
       <c r="A4" s="6" t="s">
@@ -1550,17 +1570,17 @@
       <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
@@ -1582,15 +1602,15 @@
         <v>10</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" ht="12" customHeight="1" spans="1:17">
       <c r="A6" s="6" t="s">
@@ -1612,15 +1632,15 @@
         <v>10</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
@@ -1642,15 +1662,15 @@
         <v>10</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:17">
       <c r="A8" s="6" t="s">
@@ -1672,15 +1692,15 @@
         <v>10</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:17">
       <c r="A9" s="6" t="s">
@@ -1702,15 +1722,15 @@
         <v>10</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:17">
       <c r="A10" s="6" t="s">
@@ -1764,17 +1784,17 @@
       <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" ht="12" customHeight="1" spans="1:17">
       <c r="A12" s="6" t="s">
@@ -1798,17 +1818,17 @@
       <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:17">
       <c r="A13" s="6" t="s">
@@ -1830,15 +1850,15 @@
         <v>10</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:17">
       <c r="A14" s="6" t="s">
@@ -1860,15 +1880,15 @@
         <v>34</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" ht="12" customHeight="1" spans="1:17">
       <c r="A15" s="6" t="s">
@@ -1890,15 +1910,15 @@
         <v>10</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:17">
       <c r="A16" s="6" t="s">
@@ -1952,17 +1972,17 @@
       <c r="H17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" ht="12" customHeight="1" spans="1:17">
       <c r="A18" s="6" t="s">
@@ -1986,17 +2006,17 @@
       <c r="H18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" ht="12" customHeight="1" spans="1:17">
       <c r="A19" s="6" t="s">
@@ -2018,15 +2038,15 @@
         <v>10</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" ht="12" customHeight="1" spans="1:17">
       <c r="A20" s="6" t="s">
@@ -2048,15 +2068,15 @@
         <v>10</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" ht="12" customHeight="1" spans="1:17">
       <c r="A21" s="6" t="s">
@@ -2110,17 +2130,17 @@
       <c r="H22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:17">
       <c r="A23" s="6" t="s">
@@ -2144,17 +2164,17 @@
       <c r="H23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:17">
       <c r="A24" s="6" t="s">
@@ -2176,15 +2196,15 @@
         <v>10</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" ht="12" customHeight="1" spans="1:17">
       <c r="A25" s="6" t="s">
@@ -2206,15 +2226,15 @@
         <v>10</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="6" t="s">
@@ -2236,15 +2256,15 @@
         <v>10</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
     <row r="27" ht="21.6" spans="1:17">
       <c r="A27" s="11" t="s">
@@ -2298,17 +2318,17 @@
       <c r="H28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="6" t="s">
@@ -2332,17 +2352,17 @@
       <c r="H29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="6" t="s">
@@ -2364,15 +2384,15 @@
         <v>67</v>
       </c>
       <c r="H30" s="10"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="8:17">
       <c r="H31" s="6"/>
@@ -2390,33 +2410,33 @@
       <c r="H32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="8:17">
       <c r="H33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="8:17">
       <c r="H34" s="6"/>
@@ -2434,45 +2454,45 @@
       <c r="H35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="8:17">
       <c r="H36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="8:17">
       <c r="H37" s="10"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="8:17">
       <c r="H38" s="6"/>
@@ -2490,57 +2510,57 @@
       <c r="H39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="8:17">
       <c r="H40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="8:17">
       <c r="H41" s="9"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="8:17">
       <c r="H42" s="10"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="8:17">
       <c r="H43" s="6"/>
@@ -2558,45 +2578,45 @@
       <c r="H44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
     </row>
     <row r="45" spans="8:17">
       <c r="H45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="8:17">
       <c r="H46" s="10"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="8:17">
       <c r="H47" s="6"/>
@@ -2614,84 +2634,164 @@
       <c r="H48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
     </row>
     <row r="49" spans="8:17">
       <c r="H49" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="8:17">
       <c r="H50" s="9"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
     <row r="51" spans="8:17">
       <c r="H51" s="9"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="8:17">
       <c r="H52" s="9"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="8:17">
       <c r="H53" s="10"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+    </row>
+    <row r="54" spans="8:17">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="8:17">
+      <c r="H55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+    </row>
+    <row r="56" spans="8:17">
+      <c r="H56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+    </row>
+    <row r="57" spans="8:17">
+      <c r="H57" s="13"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+    </row>
+    <row r="58" spans="8:17">
+      <c r="H58" s="13"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+    </row>
+    <row r="59" spans="8:17">
+      <c r="H59" s="13"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="45">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="I2:Q2"/>
@@ -2715,6 +2815,8 @@
     <mergeCell ref="I44:Q44"/>
     <mergeCell ref="I47:Q47"/>
     <mergeCell ref="I48:Q48"/>
+    <mergeCell ref="I54:Q54"/>
+    <mergeCell ref="I55:Q55"/>
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H18:H20"/>
@@ -2724,6 +2826,7 @@
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="H49:H53"/>
+    <mergeCell ref="H56:H59"/>
     <mergeCell ref="I4:Q9"/>
     <mergeCell ref="I12:Q15"/>
     <mergeCell ref="I18:Q20"/>
@@ -2733,6 +2836,7 @@
     <mergeCell ref="I40:Q42"/>
     <mergeCell ref="I45:Q46"/>
     <mergeCell ref="I49:Q53"/>
+    <mergeCell ref="I56:Q59"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="各版本功能一览表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>哔哩哔哩插件姬 - 各版本功能一栏表</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>自动扭蛋（有开关）</t>
+  </si>
+  <si>
+    <t>主播上线通知</t>
   </si>
   <si>
     <t>实时版聊</t>
@@ -265,7 +268,8 @@
   </si>
   <si>
     <t>不能，期间只能参与每日签到，可以正常看直播和版聊
-不能开宝箱，不能抽奖（含小电视、活动、舰长）</t>
+不能开宝箱，不能抽奖（含小电视、活动辣条）
+若你租用软件且有权限，则可以参加部分舰长抽奖，可以参加节奏风暴（前提是已实名）</t>
   </si>
   <si>
     <t>Q8</t>
@@ -524,8 +528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,9 +543,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,18 +595,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -615,13 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,19 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,18 +763,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -821,6 +825,86 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -936,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,115 +1032,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,20 +1149,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,17 +1196,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,34 +1612,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="26.2222222222222" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.11111111111111" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5555555555556" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" style="15" customWidth="1"/>
-    <col min="5" max="8" width="9" style="15"/>
-    <col min="9" max="18" width="9" style="16"/>
-    <col min="19" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="26.2222222222222" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11.5555555555556" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" style="26" customWidth="1"/>
+    <col min="5" max="8" width="9" style="26"/>
+    <col min="9" max="18" width="9" style="27"/>
+    <col min="19" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:17">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1535,22 +1652,22 @@
       <c r="Q1"/>
     </row>
     <row r="2" ht="14.4" spans="1:17">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H2"/>
@@ -1901,16 +2018,16 @@
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H14"/>
@@ -2022,13 +2139,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
@@ -2052,13 +2169,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>8</v>
@@ -2112,10 +2229,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2284,7 +2401,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" ht="14.4" spans="1:17">
+    <row r="27" ht="12" customHeight="1" spans="1:17">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -2314,8 +2431,8 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" ht="21.6" spans="1:17">
-      <c r="A28" s="19" t="s">
+    <row r="28" ht="14.4" spans="1:17">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2328,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>8</v>
@@ -2344,8 +2461,8 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" ht="35" customHeight="1" spans="1:17">
-      <c r="A29" s="19" t="s">
+    <row r="29" ht="21.6" spans="1:17">
+      <c r="A29" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2374,21 +2491,21 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" ht="14.4" spans="1:17">
-      <c r="A30" s="3" t="s">
+    <row r="30" ht="35" customHeight="1" spans="1:17">
+      <c r="A30" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>8</v>
@@ -2409,19 +2526,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -2434,7 +2551,25 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" ht="14.4" spans="8:17">
+    <row r="32" ht="14.4" spans="1:17">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2781,6 +2916,18 @@
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
+    </row>
+    <row r="61" ht="14.4" spans="8:17">
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2795,20 +2942,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2833,10 +2980,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2849,10 +2996,10 @@
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2937,10 +3084,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2953,10 +3100,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3017,10 +3164,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3033,10 +3180,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3060,7 +3207,7 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3072,7 +3219,7 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3109,10 +3256,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3125,10 +3272,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3189,10 +3336,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -3205,10 +3352,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3245,10 +3392,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3260,11 +3407,11 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="12" t="s">
-        <v>71</v>
+      <c r="A35" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3289,10 +3436,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3304,80 +3451,80 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="B38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" ht="10" customHeight="1" spans="1:10">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3387,8 +3534,8 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" ht="11" customHeight="1" spans="1:10">
-      <c r="A44" s="10"/>
+    <row r="44" ht="10" customHeight="1" spans="1:10">
+      <c r="A44" s="9"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3399,53 +3546,53 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+    <row r="45" ht="11" customHeight="1" spans="1:10">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3456,52 +3603,52 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3536,252 +3683,264 @@
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="13" t="s">
+      <c r="B57" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="B58" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="13" t="s">
+      <c r="B62" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="B63" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="13" t="s">
+      <c r="B65" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
+      <c r="B66" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" ht="23" customHeight="1" spans="1:10">
-      <c r="A72" s="13" t="s">
+      <c r="B72" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" ht="23" customHeight="1" spans="1:10">
+      <c r="A73" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
+      <c r="B73" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -3801,44 +3960,44 @@
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B42:J42"/>
     <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B47:J47"/>
     <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B51:J51"/>
     <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="B61:J61"/>
     <mergeCell ref="B62:J62"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B65:J65"/>
     <mergeCell ref="B71:J71"/>
     <mergeCell ref="B72:J72"/>
+    <mergeCell ref="B73:J73"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A66:A70"/>
     <mergeCell ref="B4:J9"/>
     <mergeCell ref="B12:J15"/>
-    <mergeCell ref="B57:J59"/>
     <mergeCell ref="B18:J22"/>
     <mergeCell ref="B25:J28"/>
     <mergeCell ref="B31:J32"/>
-    <mergeCell ref="B38:J39"/>
-    <mergeCell ref="B42:J44"/>
-    <mergeCell ref="B47:J48"/>
-    <mergeCell ref="B51:J54"/>
-    <mergeCell ref="B65:J69"/>
+    <mergeCell ref="B58:J60"/>
+    <mergeCell ref="B43:J45"/>
+    <mergeCell ref="B48:J49"/>
+    <mergeCell ref="B52:J55"/>
+    <mergeCell ref="B66:J70"/>
+    <mergeCell ref="B38:J40"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9540"/>
+    <workbookView windowWidth="22943" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="各版本功能一览表" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <t>A7</t>
   </si>
   <si>
-    <t>不能，期间只能参与每日签到，可以正常看直播和版聊
+    <t>不能，期间只能参与每日签到，可以正常看直播和版聊，会正常计算在线时长经验（前提是老爷）
 不能开宝箱，不能抽奖（含小电视、活动辣条）
 若你租用软件且有权限，则可以参加部分舰长抽奖，可以参加节奏风暴（前提是已实名）</t>
   </si>
@@ -377,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1162,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,26 +1199,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1614,7 +1605,7 @@
   <sheetPr/>
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
@@ -1622,24 +1613,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="26.2222222222222" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.11111111111111" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.5555555555556" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" style="26" customWidth="1"/>
-    <col min="5" max="8" width="9" style="26"/>
-    <col min="9" max="18" width="9" style="27"/>
-    <col min="19" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="26.2222222222222" style="23" customWidth="1"/>
+    <col min="2" max="2" width="7.11111111111111" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.5555555555556" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" style="23" customWidth="1"/>
+    <col min="5" max="8" width="9" style="23"/>
+    <col min="9" max="18" width="9" style="24"/>
+    <col min="19" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:17">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1652,22 +1643,22 @@
       <c r="Q1"/>
     </row>
     <row r="2" ht="14.4" spans="1:17">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H2"/>
@@ -2018,16 +2009,16 @@
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H14"/>
@@ -2462,7 +2453,7 @@
       <c r="Q28"/>
     </row>
     <row r="29" ht="21.6" spans="1:17">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2492,7 +2483,7 @@
       <c r="Q29"/>
     </row>
     <row r="30" ht="35" customHeight="1" spans="1:17">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2944,8 +2935,8 @@
   <sheetPr/>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3451,44 +3442,44 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="23"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="24"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="25"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="3"/>
@@ -3723,44 +3714,44 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="3"/>
@@ -3791,20 +3782,20 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="3"/>
@@ -3835,68 +3826,68 @@
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="3"/>
@@ -3927,20 +3918,20 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" ht="23" customHeight="1" spans="1:10">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="54">

--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="各版本功能一览表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>哔哩哔哩插件姬 - 各版本功能一栏表</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>普通用户版</t>
+  </si>
+  <si>
+    <t>独立主播版</t>
   </si>
   <si>
     <t>主播版</t>
@@ -156,6 +159,9 @@
   </si>
   <si>
     <t>89/月</t>
+  </si>
+  <si>
+    <t>99/月</t>
   </si>
   <si>
     <t>149/月</t>
@@ -377,10 +383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -589,12 +595,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -607,43 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,43 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +685,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -763,13 +721,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,10 +1026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,16 +1038,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,10 +1059,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,92 +1083,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,6 +1252,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,12 +1612,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -1616,13 +1625,13 @@
     <col min="1" max="1" width="26.2222222222222" style="23" customWidth="1"/>
     <col min="2" max="2" width="7.11111111111111" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.5555555555556" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" style="23" customWidth="1"/>
-    <col min="5" max="8" width="9" style="23"/>
-    <col min="9" max="18" width="9" style="24"/>
-    <col min="19" max="16384" width="9" style="23"/>
+    <col min="4" max="5" width="11.3333333333333" style="23" customWidth="1"/>
+    <col min="6" max="9" width="9" style="23"/>
+    <col min="10" max="19" width="9" style="24"/>
+    <col min="20" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:17">
+    <row r="1" ht="14.4" spans="1:18">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1640,7 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
-      <c r="H1"/>
+      <c r="G1" s="25"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -1641,8 +1650,9 @@
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
-    </row>
-    <row r="2" ht="14.4" spans="1:17">
+      <c r="R1"/>
+    </row>
+    <row r="2" ht="14.4" spans="1:18">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1671,9 @@
       <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2"/>
+      <c r="G2" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -1671,27 +1683,28 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-    </row>
-    <row r="3" ht="12" customHeight="1" spans="1:17">
+      <c r="R2"/>
+    </row>
+    <row r="3" ht="12" customHeight="1" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3"/>
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -1701,27 +1714,28 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-    </row>
-    <row r="4" ht="12" customHeight="1" spans="1:17">
+      <c r="R3"/>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -1731,27 +1745,28 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-    </row>
-    <row r="5" ht="12" customHeight="1" spans="1:17">
+      <c r="R4"/>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5"/>
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -1761,27 +1776,30 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:17">
+      <c r="R5"/>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:18">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -1791,27 +1809,30 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-    </row>
-    <row r="7" ht="12" customHeight="1" spans="1:17">
+      <c r="R6"/>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:18">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1821,27 +1842,30 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-    </row>
-    <row r="8" ht="12" customHeight="1" spans="1:17">
+      <c r="R7"/>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:18">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8"/>
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1851,27 +1875,30 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-    </row>
-    <row r="9" ht="12" customHeight="1" spans="1:17">
+      <c r="R8"/>
+    </row>
+    <row r="9" ht="12" customHeight="1" spans="1:18">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1881,27 +1908,30 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-    </row>
-    <row r="10" ht="12" customHeight="1" spans="1:17">
+      <c r="R9"/>
+    </row>
+    <row r="10" ht="12" customHeight="1" spans="1:18">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1911,27 +1941,30 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:17">
+      <c r="R10"/>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:18">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1941,27 +1974,30 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-    </row>
-    <row r="12" ht="12" customHeight="1" spans="1:17">
+      <c r="R11"/>
+    </row>
+    <row r="12" ht="12" customHeight="1" spans="1:18">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1971,27 +2007,30 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-    </row>
-    <row r="13" ht="12" customHeight="1" spans="1:17">
+      <c r="R12"/>
+    </row>
+    <row r="13" ht="12" customHeight="1" spans="1:18">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -2001,27 +2040,30 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-    </row>
-    <row r="14" ht="12" customHeight="1" spans="1:17">
+      <c r="R13"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" spans="1:18">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H14"/>
+      <c r="G14" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -2031,27 +2073,30 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-    </row>
-    <row r="15" ht="12" customHeight="1" spans="1:17">
+      <c r="R14"/>
+    </row>
+    <row r="15" ht="12" customHeight="1" spans="1:18">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -2061,27 +2106,30 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-    </row>
-    <row r="16" ht="12" customHeight="1" spans="1:17">
+      <c r="R15"/>
+    </row>
+    <row r="16" ht="12" customHeight="1" spans="1:18">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -2091,27 +2139,30 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-    </row>
-    <row r="17" ht="12" customHeight="1" spans="1:17">
+      <c r="R16"/>
+    </row>
+    <row r="17" ht="12" customHeight="1" spans="1:18">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -2121,27 +2172,30 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-    </row>
-    <row r="18" ht="12" customHeight="1" spans="1:17">
+      <c r="R17"/>
+    </row>
+    <row r="18" ht="12" customHeight="1" spans="1:18">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18"/>
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2151,27 +2205,30 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-    </row>
-    <row r="19" ht="12" customHeight="1" spans="1:17">
+      <c r="R18"/>
+    </row>
+    <row r="19" ht="12" customHeight="1" spans="1:18">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19"/>
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2181,27 +2238,30 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-    </row>
-    <row r="20" ht="12" customHeight="1" spans="1:17">
+      <c r="R19"/>
+    </row>
+    <row r="20" ht="12" customHeight="1" spans="1:18">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20"/>
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2211,27 +2271,30 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-    </row>
-    <row r="21" ht="12" customHeight="1" spans="1:17">
+      <c r="R20"/>
+    </row>
+    <row r="21" ht="12" customHeight="1" spans="1:18">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2241,27 +2304,30 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-    </row>
-    <row r="22" ht="12" customHeight="1" spans="1:17">
+      <c r="R21"/>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="1:18">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2271,27 +2337,30 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-    </row>
-    <row r="23" ht="12" customHeight="1" spans="1:17">
+      <c r="R22"/>
+    </row>
+    <row r="23" ht="12" customHeight="1" spans="1:18">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23"/>
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2301,27 +2370,30 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-    </row>
-    <row r="24" ht="12" customHeight="1" spans="1:17">
+      <c r="R23"/>
+    </row>
+    <row r="24" ht="12" customHeight="1" spans="1:18">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24"/>
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2331,27 +2403,30 @@
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-    </row>
-    <row r="25" ht="12" customHeight="1" spans="1:17">
+      <c r="R24"/>
+    </row>
+    <row r="25" ht="12" customHeight="1" spans="1:18">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25"/>
+        <v>9</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2361,27 +2436,30 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-    </row>
-    <row r="26" ht="12" customHeight="1" spans="1:17">
+      <c r="R25"/>
+    </row>
+    <row r="26" ht="12" customHeight="1" spans="1:18">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26"/>
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2391,27 +2469,30 @@
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-    </row>
-    <row r="27" ht="12" customHeight="1" spans="1:17">
+      <c r="R26"/>
+    </row>
+    <row r="27" ht="12" customHeight="1" spans="1:18">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27"/>
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2421,27 +2502,30 @@
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-    </row>
-    <row r="28" ht="14.4" spans="1:17">
+      <c r="R27"/>
+    </row>
+    <row r="28" ht="14.4" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28"/>
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2451,27 +2535,30 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-    </row>
-    <row r="29" ht="21.6" spans="1:17">
+      <c r="R28"/>
+    </row>
+    <row r="29" ht="21.6" spans="1:18">
       <c r="A29" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29"/>
+        <v>19</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2481,27 +2568,30 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-    </row>
-    <row r="30" ht="35" customHeight="1" spans="1:17">
+      <c r="R29"/>
+    </row>
+    <row r="30" ht="35" customHeight="1" spans="1:18">
       <c r="A30" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30"/>
+        <v>19</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2511,27 +2601,30 @@
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-    </row>
-    <row r="31" ht="14.4" spans="1:17">
+      <c r="R30"/>
+    </row>
+    <row r="31" ht="14.4" spans="1:18">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31"/>
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2541,27 +2634,30 @@
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-    </row>
-    <row r="32" ht="14.4" spans="1:17">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="R31"/>
+    </row>
+    <row r="32" ht="14.4" spans="1:18">
+      <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H32"/>
+      <c r="F32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2571,9 +2667,9 @@
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-    </row>
-    <row r="33" ht="14.4" spans="8:17">
-      <c r="H33"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" ht="14.4" spans="9:18">
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2583,9 +2679,9 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-    </row>
-    <row r="34" ht="14.4" spans="8:17">
-      <c r="H34"/>
+      <c r="R33"/>
+    </row>
+    <row r="34" ht="14.4" spans="9:18">
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2595,9 +2691,9 @@
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-    </row>
-    <row r="35" ht="14.4" spans="8:17">
-      <c r="H35"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" ht="14.4" spans="9:18">
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2607,9 +2703,9 @@
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-    </row>
-    <row r="36" ht="14.4" spans="8:17">
-      <c r="H36"/>
+      <c r="R35"/>
+    </row>
+    <row r="36" ht="14.4" spans="9:18">
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -2619,9 +2715,9 @@
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-    </row>
-    <row r="37" ht="14.4" spans="8:17">
-      <c r="H37"/>
+      <c r="R36"/>
+    </row>
+    <row r="37" ht="14.4" spans="9:18">
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -2631,9 +2727,9 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-    </row>
-    <row r="38" ht="14.4" spans="8:17">
-      <c r="H38"/>
+      <c r="R37"/>
+    </row>
+    <row r="38" ht="14.4" spans="9:18">
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -2643,9 +2739,9 @@
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-    </row>
-    <row r="39" ht="14.4" spans="8:17">
-      <c r="H39"/>
+      <c r="R38"/>
+    </row>
+    <row r="39" ht="14.4" spans="9:18">
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -2655,9 +2751,9 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-    </row>
-    <row r="40" ht="14.4" spans="8:17">
-      <c r="H40"/>
+      <c r="R39"/>
+    </row>
+    <row r="40" ht="14.4" spans="9:18">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -2667,9 +2763,9 @@
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-    </row>
-    <row r="41" ht="14.4" spans="8:17">
-      <c r="H41"/>
+      <c r="R40"/>
+    </row>
+    <row r="41" ht="14.4" spans="9:18">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -2679,9 +2775,9 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-    </row>
-    <row r="42" ht="14.4" spans="8:17">
-      <c r="H42"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" ht="14.4" spans="9:18">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -2691,9 +2787,9 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-    </row>
-    <row r="43" ht="14.4" spans="8:17">
-      <c r="H43"/>
+      <c r="R42"/>
+    </row>
+    <row r="43" ht="14.4" spans="9:18">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -2703,9 +2799,9 @@
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-    </row>
-    <row r="44" ht="14.4" spans="8:17">
-      <c r="H44"/>
+      <c r="R43"/>
+    </row>
+    <row r="44" ht="14.4" spans="9:18">
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -2715,9 +2811,9 @@
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-    </row>
-    <row r="45" ht="14.4" spans="8:17">
-      <c r="H45"/>
+      <c r="R44"/>
+    </row>
+    <row r="45" ht="14.4" spans="9:18">
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -2727,9 +2823,9 @@
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-    </row>
-    <row r="46" ht="14.4" spans="8:17">
-      <c r="H46"/>
+      <c r="R45"/>
+    </row>
+    <row r="46" ht="14.4" spans="9:18">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -2739,9 +2835,9 @@
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-    </row>
-    <row r="47" ht="14.4" spans="8:17">
-      <c r="H47"/>
+      <c r="R46"/>
+    </row>
+    <row r="47" ht="14.4" spans="9:18">
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -2751,9 +2847,9 @@
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-    </row>
-    <row r="48" ht="14.4" spans="8:17">
-      <c r="H48"/>
+      <c r="R47"/>
+    </row>
+    <row r="48" ht="14.4" spans="9:18">
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -2763,9 +2859,9 @@
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-    </row>
-    <row r="49" ht="14.4" spans="8:17">
-      <c r="H49"/>
+      <c r="R48"/>
+    </row>
+    <row r="49" ht="14.4" spans="9:18">
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -2775,9 +2871,9 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-    </row>
-    <row r="50" ht="14.4" spans="8:17">
-      <c r="H50"/>
+      <c r="R49"/>
+    </row>
+    <row r="50" ht="14.4" spans="9:18">
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -2787,9 +2883,9 @@
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-    </row>
-    <row r="51" ht="14.4" spans="8:17">
-      <c r="H51"/>
+      <c r="R50"/>
+    </row>
+    <row r="51" ht="14.4" spans="9:18">
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -2799,9 +2895,9 @@
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-    </row>
-    <row r="52" ht="14.4" spans="8:17">
-      <c r="H52"/>
+      <c r="R51"/>
+    </row>
+    <row r="52" ht="14.4" spans="9:18">
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -2811,9 +2907,9 @@
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-    </row>
-    <row r="53" ht="14.4" spans="8:17">
-      <c r="H53"/>
+      <c r="R52"/>
+    </row>
+    <row r="53" ht="14.4" spans="9:18">
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -2823,9 +2919,9 @@
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-    </row>
-    <row r="54" ht="14.4" spans="8:17">
-      <c r="H54"/>
+      <c r="R53"/>
+    </row>
+    <row r="54" ht="14.4" spans="9:18">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -2835,9 +2931,9 @@
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-    </row>
-    <row r="55" ht="14.4" spans="8:17">
-      <c r="H55"/>
+      <c r="R54"/>
+    </row>
+    <row r="55" ht="14.4" spans="9:18">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -2847,9 +2943,9 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-    </row>
-    <row r="56" ht="14.4" spans="8:17">
-      <c r="H56"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" ht="14.4" spans="9:18">
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
@@ -2859,9 +2955,9 @@
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-    </row>
-    <row r="57" ht="14.4" spans="8:17">
-      <c r="H57"/>
+      <c r="R56"/>
+    </row>
+    <row r="57" ht="14.4" spans="9:18">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -2871,9 +2967,9 @@
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-    </row>
-    <row r="58" ht="14.4" spans="8:17">
-      <c r="H58"/>
+      <c r="R57"/>
+    </row>
+    <row r="58" ht="14.4" spans="9:18">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -2883,9 +2979,9 @@
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-    </row>
-    <row r="59" ht="14.4" spans="8:17">
-      <c r="H59"/>
+      <c r="R58"/>
+    </row>
+    <row r="59" ht="14.4" spans="9:18">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -2895,9 +2991,9 @@
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-    </row>
-    <row r="60" ht="14.4" spans="8:17">
-      <c r="H60"/>
+      <c r="R59"/>
+    </row>
+    <row r="60" ht="14.4" spans="9:18">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -2907,9 +3003,9 @@
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-    </row>
-    <row r="61" ht="14.4" spans="8:17">
-      <c r="H61"/>
+      <c r="R60"/>
+    </row>
+    <row r="61" ht="14.4" spans="9:18">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -2919,10 +3015,11 @@
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
+      <c r="R61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2935,7 +3032,7 @@
   <sheetPr/>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -2943,10 +3040,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2971,10 +3068,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2987,10 +3084,10 @@
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3075,10 +3172,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3091,10 +3188,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3155,10 +3252,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3171,10 +3268,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3247,10 +3344,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3263,10 +3360,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3327,10 +3424,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -3343,10 +3440,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3383,10 +3480,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3399,10 +3496,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3427,10 +3524,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3443,10 +3540,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -3495,10 +3592,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3511,10 +3608,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3563,10 +3660,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3579,10 +3676,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3619,10 +3716,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3635,10 +3732,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3699,10 +3796,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3715,10 +3812,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -3767,10 +3864,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3783,10 +3880,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -3811,10 +3908,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3827,10 +3924,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -3903,10 +4000,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3919,10 +4016,10 @@
     </row>
     <row r="73" ht="23" customHeight="1" spans="1:10">
       <c r="A73" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>

--- a/doc/版本功能对照一览.xlsx
+++ b/doc/版本功能对照一览.xlsx
@@ -35,7 +35,7 @@
     <t>独立主播版</t>
   </si>
   <si>
-    <t>主播版</t>
+    <t>多号主播版</t>
   </si>
   <si>
     <t>管理员版</t>
@@ -383,10 +383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -413,7 +413,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,85 +466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,6 +496,54 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +595,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -607,25 +637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,25 +655,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,43 +715,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,37 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,16 +946,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,6 +980,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,30 +1018,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1026,10 +1026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,16 +1038,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,115 +1056,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,7 +1617,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -1626,7 +1626,8 @@
     <col min="2" max="2" width="7.11111111111111" style="23" customWidth="1"/>
     <col min="3" max="3" width="11.5555555555556" style="23" customWidth="1"/>
     <col min="4" max="5" width="11.3333333333333" style="23" customWidth="1"/>
-    <col min="6" max="9" width="9" style="23"/>
+    <col min="6" max="6" width="10.6666666666667" style="23" customWidth="1"/>
+    <col min="7" max="9" width="9" style="23"/>
     <col min="10" max="19" width="9" style="24"/>
     <col min="20" max="16384" width="9" style="23"/>
   </cols>
